--- a/modelos/OBAPPA4451290/OBAPPA4451290_Sell Out_metricas.xlsx
+++ b/modelos/OBAPPA4451290/OBAPPA4451290_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,61 +473,101 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45045</v>
+        <v>45027</v>
       </c>
       <c r="B2" t="n">
-        <v>6.500631003216743</v>
+        <v>4.807755358796502</v>
       </c>
       <c r="C2" t="n">
-        <v>4.425602853782099</v>
+        <v>2.526141451591528</v>
       </c>
       <c r="D2" t="n">
-        <v>8.615757355264098</v>
+        <v>6.96940015329598</v>
       </c>
       <c r="E2" t="n">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45042</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45049</v>
+        <v>45033</v>
       </c>
       <c r="B3" t="n">
-        <v>5.155400672586974</v>
+        <v>5.874744296038806</v>
       </c>
       <c r="C3" t="n">
-        <v>2.936438289179</v>
+        <v>3.744526599365846</v>
       </c>
       <c r="D3" t="n">
-        <v>7.267030002768201</v>
+        <v>8.133447274265571</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45042</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
+        <v>45045</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6.502301565127802</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.30155661107065</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.655457005424671</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>45042</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.150727575748355</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.989653767939637</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.611797799022932</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>45042</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>45056</v>
       </c>
-      <c r="B4" t="n">
-        <v>4.637903516698957</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.54296029908652</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.705696235033308</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="B6" t="n">
+        <v>4.64856112756508</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.456483588948196</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.87596301959986</v>
+      </c>
+      <c r="E6" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F6" s="2" t="n">
         <v>45049</v>
       </c>
     </row>
@@ -542,7 +582,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,25 +634,25 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2506314013818022</v>
+        <v>1.421447284478458</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5006310032167427</v>
+        <v>1.192244641203498</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5006310032167427</v>
+        <v>1.192244641203498</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08343850053612378</v>
+        <v>0.198707440200583</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08343850053612378</v>
+        <v>0.198707440200583</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08009691720168639</v>
+        <v>0.220627614453379</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -620,27 +660,53 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2523068623298391</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5023015651278016</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5023015651278016</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.08371692752130026</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.08371692752130026</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.08035345532359456</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
-        <v>3.664239994701595</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.914220466587272</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.896652094642965</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.6322173648809886</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.6322173648809886</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.4787353276037248</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="B4" t="n">
+        <v>2.869861098566751</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.694066438651906</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.641514802424877</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4757267942075815</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.5495203758550268</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.377872241045593</v>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
     </row>

--- a/modelos/OBAPPA4451290/OBAPPA4451290_Sell Out_metricas.xlsx
+++ b/modelos/OBAPPA4451290/OBAPPA4451290_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,101 +473,61 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45027</v>
+        <v>45045</v>
       </c>
       <c r="B2" t="n">
-        <v>4.807755358796502</v>
+        <v>7.177314338312847</v>
       </c>
       <c r="C2" t="n">
-        <v>2.526141451591528</v>
+        <v>5.066195533979805</v>
       </c>
       <c r="D2" t="n">
-        <v>6.96940015329598</v>
+        <v>9.348466812084691</v>
       </c>
       <c r="E2" t="n">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45026</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45033</v>
+        <v>45049</v>
       </c>
       <c r="B3" t="n">
-        <v>5.874744296038806</v>
+        <v>5.823842112960437</v>
       </c>
       <c r="C3" t="n">
-        <v>3.744526599365846</v>
+        <v>3.714073111575834</v>
       </c>
       <c r="D3" t="n">
-        <v>8.133447274265571</v>
+        <v>7.912960957450981</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45026</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45045</v>
+        <v>45056</v>
       </c>
       <c r="B4" t="n">
-        <v>6.502301565127802</v>
+        <v>5.124035312985336</v>
       </c>
       <c r="C4" t="n">
-        <v>4.30155661107065</v>
+        <v>2.887588417759807</v>
       </c>
       <c r="D4" t="n">
-        <v>8.655457005424671</v>
+        <v>7.310725459995211</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45042</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45049</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5.150727575748355</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2.989653767939637</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.611797799022932</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>45042</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45056</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4.64856112756508</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2.456483588948196</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.87596301959986</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2" t="n">
         <v>45049</v>
       </c>
     </row>
@@ -582,7 +542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,25 +594,25 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1.421447284478458</v>
+        <v>1.386069051197017</v>
       </c>
       <c r="C2" t="n">
-        <v>1.192244641203498</v>
+        <v>1.177314338312847</v>
       </c>
       <c r="D2" t="n">
-        <v>1.192244641203498</v>
+        <v>1.177314338312847</v>
       </c>
       <c r="E2" t="n">
-        <v>0.198707440200583</v>
+        <v>0.1962190563854745</v>
       </c>
       <c r="F2" t="n">
-        <v>0.198707440200583</v>
+        <v>0.1962190563854745</v>
       </c>
       <c r="G2" t="n">
-        <v>0.220627614453379</v>
+        <v>0.1786880555607333</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -660,54 +620,28 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2523068623298391</v>
+        <v>6.242805144868788</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5023015651278016</v>
+        <v>2.498560614607696</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5023015651278016</v>
+        <v>2.473938712972886</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08371692752130026</v>
+        <v>0.8246462376576287</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08371692752130026</v>
+        <v>0.8246462376576287</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08035345532359456</v>
+        <v>0.5814748710495468</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2.869861098566751</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.694066438651906</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.641514802424877</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.4757267942075815</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.5495203758550268</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.377872241045593</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAPPA4451290/OBAPPA4451290_Sell Out_metricas.xlsx
+++ b/modelos/OBAPPA4451290/OBAPPA4451290_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,61 +473,101 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45045</v>
+        <v>45027</v>
       </c>
       <c r="B2" t="n">
-        <v>7.177314338312847</v>
+        <v>5.016995970226799</v>
       </c>
       <c r="C2" t="n">
-        <v>5.066195533979805</v>
+        <v>3.081385153119346</v>
       </c>
       <c r="D2" t="n">
-        <v>9.348466812084691</v>
+        <v>7.153737608845179</v>
       </c>
       <c r="E2" t="n">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45042</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45049</v>
+        <v>45033</v>
       </c>
       <c r="B3" t="n">
-        <v>5.823842112960437</v>
+        <v>6.136128382870962</v>
       </c>
       <c r="C3" t="n">
-        <v>3.714073111575834</v>
+        <v>4.099847659184987</v>
       </c>
       <c r="D3" t="n">
-        <v>7.912960957450981</v>
+        <v>8.135667674123145</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45042</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
+        <v>45045</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6.776016525031447</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.63633252115286</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.726085143390637</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>45042</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.422736277019217</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.383421131225583</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.417113733668202</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>45042</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>45056</v>
       </c>
-      <c r="B4" t="n">
-        <v>5.124035312985336</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.887588417759807</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.310725459995211</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="B6" t="n">
+        <v>4.833512555578361</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.878194637946298</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.788327883047031</v>
+      </c>
+      <c r="E6" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F6" s="2" t="n">
         <v>45049</v>
       </c>
     </row>
@@ -542,7 +582,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,25 +634,25 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.386069051197017</v>
+        <v>0.9662969225503523</v>
       </c>
       <c r="C2" t="n">
-        <v>1.177314338312847</v>
+        <v>0.983004029773201</v>
       </c>
       <c r="D2" t="n">
-        <v>1.177314338312847</v>
+        <v>0.983004029773201</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1962190563854745</v>
+        <v>0.1638340049622002</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1962190563854745</v>
+        <v>0.1638340049622002</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1786880555607333</v>
+        <v>0.1784522808993938</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -620,28 +660,54 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6022016471218824</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.776016525031447</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.776016525031447</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1293360875052412</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1293360875052412</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1214802005791139</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
-        <v>6.242805144868788</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.498560614607696</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.473938712972886</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.8246462376576287</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.8246462376576287</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.5814748710495468</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.5</v>
+      <c r="B4" t="n">
+        <v>3.325897843443189</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.823704428750226</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.706706816575539</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5140532806280977</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.6111708518594536</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.3916436880711539</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.6666666666666667</v>
       </c>
     </row>
   </sheetData>
